--- a/CODEC Wing/BOM/CODEC Wing.xlsx
+++ b/CODEC Wing/BOM/CODEC Wing.xlsx
@@ -781,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -857,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1143,6 +1146,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:J16" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B2:J16"/>
+  <sortState ref="B3:J16">
+    <sortCondition ref="H2:H16"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Reference" dataDxfId="8"/>
     <tableColumn id="2" name="Description" dataDxfId="7"/>
@@ -1425,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,63 +1483,63 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H3" s="9">
-        <v>1.32</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <f>H3*I3</f>
-        <v>1.32</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>63</v>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8">
-        <v>5.5E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I4" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J16" si="0">H4*I4</f>
-        <v>0.38500000000000001</v>
+        <f>H4*I4</f>
+        <v>1.6E-2</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="16" t="s">
@@ -1544,34 +1550,34 @@
         <v>4.5609999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>43</v>
+      <c r="G5" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I5" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.14799999999999999</v>
+        <f>H5*I5</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="K5" s="10"/>
     </row>
@@ -1601,296 +1607,296 @@
         <v>2</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" si="0"/>
+        <f>H6*I6</f>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>32</v>
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8">
-        <v>0.06</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I7" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f>H7*I7</f>
+        <v>0.14799999999999999</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I8" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999999E-2</v>
+        <f>H8*I8</f>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" s="8">
-        <v>2.09</v>
+        <v>0.06</v>
       </c>
       <c r="I9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="0"/>
-        <v>2.09</v>
+        <f>H9*I9</f>
+        <v>0.12</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="I10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H10*I10</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>65</v>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="13"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
       <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H11*I11</f>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.32</v>
+      </c>
       <c r="I12" s="13">
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H12*I12</f>
+        <v>1.32</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>2.09</v>
       </c>
       <c r="I13" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <f>H13*I13</f>
+        <v>2.09</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="13">
         <v>2</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <f>H14*I14</f>
+        <v>0</v>
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="15">
-        <f t="shared" si="0"/>
-        <v>0.24399999999999999</v>
+        <f>H15*I15</f>
+        <v>0</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0.13600000000000001</v>
-      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="20">
         <v>1</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="0"/>
-        <v>0.13600000000000001</v>
+        <f>H16*I16</f>
+        <v>0</v>
       </c>
       <c r="K16" s="10"/>
     </row>
